--- a/test/restoran.xlsx
+++ b/test/restoran.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/13521042_mahasiswa_itb_ac_id/Documents/Semester 4/Strategi Algoritma/Makalah/MakalahStima/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/13521042_mahasiswa_itb_ac_id/Documents/Semester 4/Strategi Algoritma/Makalah/MakalahStima/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E68DF8C-7962-4E87-9A41-6E176C07B3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{4E68DF8C-7962-4E87-9A41-6E176C07B3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BA25773-1B0A-44E7-B828-010005898205}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73BFB68D-0E0E-4784-8078-1BAB484ECF2A}"/>
+    <workbookView xWindow="6330" yWindow="2040" windowWidth="14160" windowHeight="8880" xr2:uid="{73BFB68D-0E0E-4784-8078-1BAB484ECF2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Menu</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Spageti</t>
   </si>
   <si>
-    <t>Jenis</t>
-  </si>
-  <si>
     <t>Nasi ayam bakar</t>
   </si>
   <si>
@@ -114,7 +111,7 @@
     <t>lele cabai nasi</t>
   </si>
   <si>
-    <t>Makanan</t>
+    <t>Terjual</t>
   </si>
 </sst>
 </file>
@@ -471,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9468B39C-4DB9-4E05-9032-43C5E64C3237}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -509,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>12000</v>
@@ -520,16 +517,16 @@
       <c r="E2">
         <v>4.7</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
+      <c r="F2">
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>17000</v>
@@ -540,8 +537,8 @@
       <c r="E3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
+      <c r="F3">
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -549,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>16000</v>
@@ -560,8 +557,8 @@
       <c r="E4">
         <v>3.8</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
+      <c r="F4">
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>15000</v>
@@ -580,16 +577,16 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
+      <c r="F5">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>18000</v>
@@ -600,16 +597,16 @@
       <c r="E6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
+      <c r="F6">
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>18000</v>
@@ -620,16 +617,16 @@
       <c r="E7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
+      <c r="F7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>20000</v>
@@ -640,16 +637,16 @@
       <c r="E8">
         <v>4.8</v>
       </c>
-      <c r="F8" t="s">
-        <v>26</v>
+      <c r="F8">
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>13000</v>
@@ -660,16 +657,16 @@
       <c r="E9">
         <v>3.4</v>
       </c>
-      <c r="F9" t="s">
-        <v>26</v>
+      <c r="F9">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>16000</v>
@@ -680,16 +677,16 @@
       <c r="E10">
         <v>4.5</v>
       </c>
-      <c r="F10" t="s">
-        <v>26</v>
+      <c r="F10">
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C11">
         <v>11000</v>
@@ -700,8 +697,8 @@
       <c r="E11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F11" t="s">
-        <v>26</v>
+      <c r="F11">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
